--- a/files/LCI_IGU.xlsx
+++ b/files/LCI_IGU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA_Repo\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F629430-54EA-43F0-BA17-FC215E46F1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADA3F50-E5BD-448F-B93E-DB4C27E46248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="13980" windowHeight="13155" tabRatio="818" firstSheet="39" activeTab="43" xr2:uid="{B87BFFB3-3456-42B2-AA1B-272EE0BB9BDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="818" activeTab="1" xr2:uid="{B87BFFB3-3456-42B2-AA1B-272EE0BB9BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hypothesis" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6608" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6607" uniqueCount="455">
   <si>
     <t>skip</t>
   </si>
@@ -371,9 +371,6 @@
     <t>market for silica sand</t>
   </si>
   <si>
-    <t>300ad9e0d4aa37e2c3f88e40377b0c85</t>
-  </si>
-  <si>
     <t>market for steel, unalloyed</t>
   </si>
   <si>
@@ -1440,6 +1437,12 @@
   </si>
   <si>
     <t>market_tsg_coated</t>
+  </si>
+  <si>
+    <t>exldb_sand</t>
+  </si>
+  <si>
+    <t>be_market_silica_sand</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="3"/>
@@ -2254,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3"/>
@@ -2362,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>90</v>
@@ -2395,24 +2398,24 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="32">
         <v>0</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>41</v>
@@ -2445,15 +2448,15 @@
         <v>29</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>36</v>
@@ -2493,7 +2496,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2543,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5"/>
@@ -2561,7 +2564,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
@@ -2658,7 +2661,7 @@
     </row>
     <row r="11" spans="1:16" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -2698,13 +2701,13 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>36</v>
@@ -2744,7 +2747,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P12" s="10"/>
     </row>
@@ -2831,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="3"/>
@@ -2850,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3"/>
@@ -2958,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>90</v>
@@ -2991,24 +2994,24 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="32">
         <v>0</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>41</v>
@@ -3041,7 +3044,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>49</v>
@@ -3049,7 +3052,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>36</v>
@@ -3089,7 +3092,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3137,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5"/>
@@ -3155,7 +3158,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
@@ -3252,7 +3255,7 @@
     </row>
     <row r="11" spans="1:16" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -3292,13 +3295,13 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>36</v>
@@ -3338,7 +3341,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P12" s="10"/>
     </row>
@@ -3425,7 +3428,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="3"/>
@@ -3444,7 +3447,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3"/>
@@ -3552,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>90</v>
@@ -3585,10 +3588,10 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3633,10 +3636,10 @@
         <v>29</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3684,7 +3687,7 @@
         <v>57</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="19" customFormat="1">
@@ -3732,7 +3735,7 @@
         <v>53</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="21" customFormat="1">
@@ -3780,12 +3783,12 @@
         <v>54</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="21" customFormat="1">
       <c r="A16" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" s="49" t="s">
         <v>18</v>
@@ -3825,10 +3828,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="P16" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="P16" s="21" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="21" customFormat="1">
@@ -3876,12 +3879,12 @@
         <v>57</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>73</v>
@@ -3921,15 +3924,15 @@
         <v>29</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1">
       <c r="A19" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>18</v>
@@ -3969,15 +3972,15 @@
         <v>29</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>73</v>
@@ -4017,15 +4020,15 @@
         <v>29</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="21" customFormat="1">
       <c r="A21" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="49" t="s">
         <v>18</v>
@@ -4065,10 +4068,10 @@
         <v>29</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="21" customFormat="1">
@@ -4116,7 +4119,7 @@
         <v>57</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -4161,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -4212,7 +4215,7 @@
         <v>57</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="19" customFormat="1">
@@ -4260,7 +4263,7 @@
         <v>53</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="21" customFormat="1">
@@ -4308,7 +4311,7 @@
         <v>54</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="7" customFormat="1">
@@ -4322,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>90</v>
@@ -4355,15 +4358,15 @@
         <v>29</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>36</v>
@@ -4403,7 +4406,7 @@
         <v>29</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -4454,7 +4457,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="59"/>
@@ -4473,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="59"/>
@@ -4572,7 +4575,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -4612,7 +4615,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4626,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>41</v>
@@ -4662,12 +4665,12 @@
         <v>46</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>36</v>
@@ -4707,7 +4710,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4771,7 +4774,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4790,7 +4793,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4890,7 +4893,7 @@
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>36</v>
@@ -4930,13 +4933,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>36</v>
@@ -4976,7 +4979,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U13" s="32"/>
     </row>
@@ -5022,7 +5025,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5041,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5141,7 +5144,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -5181,7 +5184,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -5196,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -5281,7 +5284,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -5321,7 +5324,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -5368,7 +5371,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5387,7 +5390,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5487,7 +5490,7 @@
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>36</v>
@@ -5527,13 +5530,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>36</v>
@@ -5573,7 +5576,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U13" s="32"/>
     </row>
@@ -5619,7 +5622,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5638,7 +5641,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5738,7 +5741,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -5778,7 +5781,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -5793,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -5878,7 +5881,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -5918,7 +5921,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -5932,8 +5935,8 @@
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6001,7 +6004,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.75">
       <c r="A6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P6"/>
     </row>
@@ -6019,7 +6022,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -6030,10 +6033,10 @@
     </row>
     <row r="8" spans="1:20" s="38" customFormat="1">
       <c r="A8" s="38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="55">
         <v>2.5</v>
@@ -6050,10 +6053,10 @@
     </row>
     <row r="9" spans="1:20" s="38" customFormat="1">
       <c r="A9" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="61">
         <v>10</v>
@@ -6070,17 +6073,17 @@
     </row>
     <row r="10" spans="1:20" s="38" customFormat="1">
       <c r="A10" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" s="61">
         <v>10</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
@@ -6090,7 +6093,7 @@
     </row>
     <row r="11" spans="1:20" s="38" customFormat="1">
       <c r="A11" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>17</v>
@@ -6100,7 +6103,7 @@
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
@@ -6110,17 +6113,17 @@
     </row>
     <row r="12" spans="1:20" s="38" customFormat="1">
       <c r="A12" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="61">
         <v>125</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
@@ -6130,16 +6133,16 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C13" s="61">
         <v>8</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G13" s="38"/>
       <c r="I13" s="9"/>
@@ -6151,16 +6154,16 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C14" s="61">
         <v>6</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G14" s="38"/>
       <c r="I14" s="9"/>
@@ -6172,16 +6175,16 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C15" s="61">
         <v>8</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G15" s="38"/>
       <c r="I15" s="9"/>
@@ -6206,7 +6209,7 @@
     </row>
     <row r="17" spans="1:16" s="38" customFormat="1" ht="15.75">
       <c r="A17" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="53"/>
     </row>
@@ -6224,7 +6227,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -6269,7 +6272,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6463,57 +6466,55 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
+    <row r="31" spans="1:16" s="7" customFormat="1">
+      <c r="A31" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="83">
         <v>0.64600000000000002</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>92</v>
-      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>18</v>
@@ -6553,7 +6554,7 @@
         <v>29</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P32" s="27" t="s">
         <v>91</v>
@@ -6561,7 +6562,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>18</v>
@@ -6601,7 +6602,7 @@
         <v>29</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P33" s="27" t="s">
         <v>92</v>
@@ -6609,7 +6610,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>17</v>
@@ -6649,15 +6650,15 @@
         <v>29</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>18</v>
@@ -6697,7 +6698,7 @@
         <v>29</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P35" s="27" t="s">
         <v>91</v>
@@ -6705,7 +6706,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>18</v>
@@ -6745,7 +6746,7 @@
         <v>29</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P36" s="27" t="s">
         <v>91</v>
@@ -6753,7 +6754,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>18</v>
@@ -6793,7 +6794,7 @@
         <v>29</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P37" s="27" t="s">
         <v>92</v>
@@ -6801,7 +6802,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>18</v>
@@ -6841,7 +6842,7 @@
         <v>29</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P38" s="27" t="s">
         <v>92</v>
@@ -6849,7 +6850,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>18</v>
@@ -6889,7 +6890,7 @@
         <v>29</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P39" s="27" t="s">
         <v>92</v>
@@ -6897,7 +6898,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>73</v>
@@ -6937,7 +6938,7 @@
         <v>29</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P40" s="27" t="s">
         <v>92</v>
@@ -6945,7 +6946,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>18</v>
@@ -6961,7 +6962,7 @@
         <v>29</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>32</v>
@@ -6985,7 +6986,7 @@
         <v>29</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P41" s="27" t="s">
         <v>92</v>
@@ -6993,7 +6994,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>18</v>
@@ -7033,7 +7034,7 @@
         <v>29</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P42" s="27" t="s">
         <v>92</v>
@@ -7041,7 +7042,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>18</v>
@@ -7081,7 +7082,7 @@
         <v>29</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P43" s="27" t="s">
         <v>92</v>
@@ -7089,7 +7090,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>18</v>
@@ -7129,7 +7130,7 @@
         <v>29</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P44" s="27" t="s">
         <v>92</v>
@@ -7137,7 +7138,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>18</v>
@@ -7177,7 +7178,7 @@
         <v>29</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P45" s="27" t="s">
         <v>92</v>
@@ -7185,7 +7186,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>18</v>
@@ -7225,7 +7226,7 @@
         <v>29</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P46" s="27" t="s">
         <v>92</v>
@@ -7233,7 +7234,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>18</v>
@@ -7273,7 +7274,7 @@
         <v>29</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P47" s="27" t="s">
         <v>92</v>
@@ -7329,7 +7330,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>18</v>
@@ -7346,31 +7347,31 @@
         <v>29</v>
       </c>
       <c r="G49" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="P49" s="27" t="s">
         <v>92</v>
@@ -7378,7 +7379,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>18</v>
@@ -7391,7 +7392,7 @@
         <v>81</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>80</v>
@@ -7418,7 +7419,7 @@
         <v>29</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P50" s="27" t="s">
         <v>92</v>
@@ -7426,7 +7427,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>18</v>
@@ -7439,7 +7440,7 @@
         <v>81</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>80</v>
@@ -7466,7 +7467,7 @@
         <v>29</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P51" s="27" t="s">
         <v>92</v>
@@ -7474,7 +7475,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>18</v>
@@ -7487,7 +7488,7 @@
         <v>81</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>80</v>
@@ -7514,7 +7515,7 @@
         <v>29</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P52" s="27" t="s">
         <v>92</v>
@@ -7522,7 +7523,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>18</v>
@@ -7535,7 +7536,7 @@
         <v>81</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>80</v>
@@ -7562,7 +7563,7 @@
         <v>29</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P53" s="27" t="s">
         <v>92</v>
@@ -7570,7 +7571,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>18</v>
@@ -7583,7 +7584,7 @@
         <v>81</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>80</v>
@@ -7610,7 +7611,7 @@
         <v>29</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P54" s="27" t="s">
         <v>92</v>
@@ -7618,7 +7619,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>18</v>
@@ -7631,7 +7632,7 @@
         <v>81</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>80</v>
@@ -7658,7 +7659,7 @@
         <v>29</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P55" s="27" t="s">
         <v>92</v>
@@ -7666,7 +7667,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>18</v>
@@ -7679,7 +7680,7 @@
         <v>81</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>80</v>
@@ -7706,7 +7707,7 @@
         <v>29</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P56" s="27" t="s">
         <v>91</v>
@@ -7714,7 +7715,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>18</v>
@@ -7727,7 +7728,7 @@
         <v>81</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>80</v>
@@ -7754,7 +7755,7 @@
         <v>29</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P57" s="27" t="s">
         <v>91</v>
@@ -7762,7 +7763,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B58" s="31" t="s">
         <v>18</v>
@@ -7775,7 +7776,7 @@
         <v>81</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>80</v>
@@ -7802,7 +7803,7 @@
         <v>29</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P58" s="27" t="s">
         <v>92</v>
@@ -7810,7 +7811,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>18</v>
@@ -7823,7 +7824,7 @@
         <v>81</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>80</v>
@@ -7850,7 +7851,7 @@
         <v>29</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P59" s="27" t="s">
         <v>92</v>
@@ -7858,7 +7859,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B60" s="31" t="s">
         <v>18</v>
@@ -7871,7 +7872,7 @@
         <v>81</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>80</v>
@@ -7898,7 +7899,7 @@
         <v>29</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P60" s="27" t="s">
         <v>92</v>
@@ -7906,7 +7907,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>18</v>
@@ -7919,7 +7920,7 @@
         <v>81</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>80</v>
@@ -7946,7 +7947,7 @@
         <v>29</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P61" s="27" t="s">
         <v>92</v>
@@ -7954,7 +7955,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>18</v>
@@ -7967,7 +7968,7 @@
         <v>81</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>80</v>
@@ -7994,7 +7995,7 @@
         <v>29</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P62" s="27" t="s">
         <v>92</v>
@@ -8002,7 +8003,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>18</v>
@@ -8015,7 +8016,7 @@
         <v>81</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>80</v>
@@ -8042,7 +8043,7 @@
         <v>29</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P63" s="27" t="s">
         <v>92</v>
@@ -8098,7 +8099,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B65" s="31" t="s">
         <v>18</v>
@@ -8138,7 +8139,7 @@
         <v>29</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P65" s="27" t="s">
         <v>92</v>
@@ -8146,7 +8147,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>18</v>
@@ -8186,7 +8187,7 @@
         <v>29</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P66" s="27" t="s">
         <v>92</v>
@@ -8194,7 +8195,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>18</v>
@@ -8234,7 +8235,7 @@
         <v>29</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P67" s="27" t="s">
         <v>92</v>
@@ -8242,7 +8243,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>18</v>
@@ -8282,7 +8283,7 @@
         <v>29</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P68" s="27" t="s">
         <v>92</v>
@@ -8290,7 +8291,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B69" s="31" t="s">
         <v>18</v>
@@ -8330,7 +8331,7 @@
         <v>29</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P69" s="27" t="s">
         <v>92</v>
@@ -8338,7 +8339,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B70" s="31" t="s">
         <v>18</v>
@@ -8378,7 +8379,7 @@
         <v>29</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P70" s="27" t="s">
         <v>92</v>
@@ -8386,7 +8387,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B71" s="31" t="s">
         <v>18</v>
@@ -8426,7 +8427,7 @@
         <v>29</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P71" s="27" t="s">
         <v>92</v>
@@ -8434,7 +8435,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>18</v>
@@ -8474,7 +8475,7 @@
         <v>29</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P72" s="27" t="s">
         <v>92</v>
@@ -8482,7 +8483,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>18</v>
@@ -8522,7 +8523,7 @@
         <v>29</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P73" s="27" t="s">
         <v>92</v>
@@ -8530,7 +8531,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>18</v>
@@ -8570,7 +8571,7 @@
         <v>29</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P74" s="27" t="s">
         <v>92</v>
@@ -8578,7 +8579,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>18</v>
@@ -8591,7 +8592,7 @@
         <v>81</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>80</v>
@@ -8618,7 +8619,7 @@
         <v>29</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P75" s="27" t="s">
         <v>92</v>
@@ -8626,7 +8627,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>18</v>
@@ -8666,7 +8667,7 @@
         <v>29</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P76" s="27" t="s">
         <v>92</v>
@@ -8674,7 +8675,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B77" s="31" t="s">
         <v>18</v>
@@ -8687,7 +8688,7 @@
         <v>81</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>80</v>
@@ -8714,7 +8715,7 @@
         <v>29</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P77" s="27" t="s">
         <v>92</v>
@@ -8722,7 +8723,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B78" s="31" t="s">
         <v>18</v>
@@ -8735,7 +8736,7 @@
         <v>81</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>80</v>
@@ -8762,7 +8763,7 @@
         <v>29</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P78" s="27" t="s">
         <v>92</v>
@@ -8810,7 +8811,7 @@
         <v>29</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P79" s="28"/>
     </row>
@@ -8859,7 +8860,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -8878,7 +8879,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -8987,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>90</v>
@@ -9020,16 +9021,16 @@
         <v>29</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U12" s="49"/>
     </row>
     <row r="13" spans="1:21" s="21" customFormat="1">
       <c r="A13" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>36</v>
@@ -9069,7 +9070,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U13" s="49"/>
     </row>
@@ -9161,7 +9162,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U15" s="49"/>
     </row>
@@ -9207,7 +9208,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U16" s="49"/>
     </row>
@@ -9303,7 +9304,7 @@
         <v>63</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U18" s="49"/>
     </row>
@@ -9395,7 +9396,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U20" s="49"/>
     </row>
@@ -9539,7 +9540,7 @@
     </row>
     <row r="24" spans="1:21" s="21" customFormat="1">
       <c r="A24" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="49" t="s">
         <v>18</v>
@@ -9579,13 +9580,13 @@
         <v>29</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U24" s="49"/>
     </row>
     <row r="25" spans="1:21" s="70" customFormat="1">
       <c r="A25" s="70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="77" t="s">
         <v>36</v>
@@ -9625,7 +9626,7 @@
         <v>29</v>
       </c>
       <c r="O25" s="78" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U25" s="77"/>
     </row>
@@ -9671,7 +9672,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9690,7 +9691,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -9790,7 +9791,7 @@
     </row>
     <row r="11" spans="1:21" s="70" customFormat="1">
       <c r="A11" s="70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" s="77" t="s">
         <v>36</v>
@@ -9830,7 +9831,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="78" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U11" s="77"/>
     </row>
@@ -9845,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -9930,7 +9931,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -9970,7 +9971,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -10019,7 +10020,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10038,7 +10039,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10147,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -10180,7 +10181,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -10195,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -10228,7 +10229,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -10320,7 +10321,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -10366,7 +10367,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -10462,7 +10463,7 @@
         <v>63</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -10554,7 +10555,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -10698,7 +10699,7 @@
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>18</v>
@@ -10738,13 +10739,13 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -10784,7 +10785,7 @@
         <v>29</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U25" s="32"/>
     </row>
@@ -10836,7 +10837,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10855,7 +10856,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10955,7 +10956,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -10995,7 +10996,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -11010,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -11095,7 +11096,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -11135,7 +11136,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -11184,7 +11185,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -11203,7 +11204,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -11312,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -11345,13 +11346,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>36</v>
@@ -11391,7 +11392,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -11483,7 +11484,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -11529,7 +11530,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -11625,7 +11626,7 @@
         <v>63</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -11717,7 +11718,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -11861,7 +11862,7 @@
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>18</v>
@@ -11901,13 +11902,13 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -11947,7 +11948,7 @@
         <v>29</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U25" s="32"/>
     </row>
@@ -11993,7 +11994,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -12012,7 +12013,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -12112,7 +12113,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -12152,7 +12153,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -12167,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -12252,7 +12253,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -12292,7 +12293,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -12343,7 +12344,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -12362,7 +12363,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -12471,7 +12472,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -12504,13 +12505,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>36</v>
@@ -12550,7 +12551,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -12642,7 +12643,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -12688,7 +12689,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -12740,7 +12741,7 @@
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>18</v>
@@ -12781,10 +12782,10 @@
         <v>29</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -12876,7 +12877,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -13020,7 +13021,7 @@
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>18</v>
@@ -13060,13 +13061,13 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -13106,7 +13107,7 @@
         <v>29</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U25" s="32"/>
     </row>
@@ -13151,7 +13152,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -13170,7 +13171,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -13270,7 +13271,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -13310,7 +13311,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -13325,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -13410,7 +13411,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -13450,7 +13451,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -13500,7 +13501,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -13519,7 +13520,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -13628,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -13661,13 +13662,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>36</v>
@@ -13707,7 +13708,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -13799,7 +13800,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -13845,7 +13846,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -13941,7 +13942,7 @@
         <v>63</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -14033,7 +14034,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -14177,7 +14178,7 @@
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>18</v>
@@ -14217,13 +14218,13 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -14263,7 +14264,7 @@
         <v>29</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U25" s="32"/>
     </row>
@@ -14309,7 +14310,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -14328,7 +14329,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -14428,7 +14429,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -14468,7 +14469,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -14483,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -14568,7 +14569,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -14608,7 +14609,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -14669,7 +14670,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
@@ -14802,7 +14803,7 @@
         <v>29</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O11" s="24"/>
     </row>
@@ -14847,7 +14848,7 @@
         <v>29</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O12" s="24"/>
     </row>
@@ -14896,7 +14897,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -14915,7 +14916,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -15024,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -15057,13 +15058,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>36</v>
@@ -15103,7 +15104,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -15195,7 +15196,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -15241,7 +15242,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -15293,7 +15294,7 @@
     </row>
     <row r="18" spans="1:21" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>18</v>
@@ -15334,10 +15335,10 @@
         <v>29</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1">
@@ -15428,7 +15429,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -15572,7 +15573,7 @@
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>18</v>
@@ -15612,13 +15613,13 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -15658,7 +15659,7 @@
         <v>29</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U25" s="32"/>
     </row>
@@ -15704,7 +15705,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -15723,7 +15724,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -15823,7 +15824,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -15863,7 +15864,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -15878,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -15963,7 +15964,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -16003,7 +16004,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -16052,7 +16053,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -16071,7 +16072,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -16180,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -16213,7 +16214,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -16228,7 +16229,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -16261,7 +16262,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -16311,7 +16312,7 @@
         <v>76</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -16358,10 +16359,10 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -16408,10 +16409,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -16461,7 +16462,7 @@
         <v>68</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -16511,7 +16512,7 @@
         <v>63</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -16561,7 +16562,7 @@
         <v>65</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U19" s="40"/>
     </row>
@@ -16607,10 +16608,10 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -16660,7 +16661,7 @@
         <v>79</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U21" s="40"/>
     </row>
@@ -16710,7 +16711,7 @@
         <v>70</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U22" s="40"/>
     </row>
@@ -16760,13 +16761,13 @@
         <v>72</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U23" s="40"/>
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>18</v>
@@ -16807,16 +16808,16 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -16856,7 +16857,7 @@
         <v>29</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U25" s="32"/>
     </row>
@@ -16902,7 +16903,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -16921,7 +16922,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -17021,7 +17022,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -17061,7 +17062,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -17076,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -17161,7 +17162,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -17201,7 +17202,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -17250,7 +17251,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -17269,7 +17270,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -17378,7 +17379,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -17411,7 +17412,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -17426,7 +17427,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -17459,13 +17460,13 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U13" s="40"/>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -17505,7 +17506,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -17555,7 +17556,7 @@
         <v>76</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -17602,10 +17603,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -17652,10 +17653,10 @@
         <v>29</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -17705,7 +17706,7 @@
         <v>68</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -17755,7 +17756,7 @@
         <v>63</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U19" s="40"/>
     </row>
@@ -17805,7 +17806,7 @@
         <v>65</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -17851,10 +17852,10 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U21" s="40"/>
     </row>
@@ -17904,7 +17905,7 @@
         <v>79</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U22" s="40"/>
     </row>
@@ -17954,7 +17955,7 @@
         <v>70</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U23" s="40"/>
     </row>
@@ -18004,13 +18005,13 @@
         <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>18</v>
@@ -18051,16 +18052,16 @@
         <v>29</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U25" s="40"/>
     </row>
     <row r="26" spans="1:21" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>36</v>
@@ -18100,7 +18101,7 @@
         <v>29</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U26" s="32"/>
     </row>
@@ -18146,7 +18147,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -18165,7 +18166,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -18265,7 +18266,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -18305,7 +18306,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -18320,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -18405,7 +18406,7 @@
     </row>
     <row r="14" spans="1:21" s="7" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>36</v>
@@ -18445,7 +18446,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U14" s="32"/>
     </row>
@@ -18494,7 +18495,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -18513,7 +18514,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -18622,7 +18623,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -18655,7 +18656,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -18670,7 +18671,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -18703,13 +18704,13 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U13" s="40"/>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -18749,7 +18750,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -18799,7 +18800,7 @@
         <v>76</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -18846,10 +18847,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -18896,10 +18897,10 @@
         <v>29</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -18949,7 +18950,7 @@
         <v>68</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -18999,7 +19000,7 @@
         <v>63</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U19" s="40"/>
     </row>
@@ -19049,7 +19050,7 @@
         <v>65</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -19095,10 +19096,10 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U21" s="40"/>
     </row>
@@ -19148,7 +19149,7 @@
         <v>79</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U22" s="40"/>
     </row>
@@ -19198,7 +19199,7 @@
         <v>70</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U23" s="40"/>
     </row>
@@ -19248,13 +19249,13 @@
         <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>18</v>
@@ -19295,16 +19296,16 @@
         <v>29</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U25" s="40"/>
     </row>
     <row r="26" spans="1:21" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>36</v>
@@ -19344,7 +19345,7 @@
         <v>29</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U26" s="32"/>
     </row>
@@ -19390,7 +19391,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -19409,7 +19410,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -19509,7 +19510,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -19549,7 +19550,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -19564,7 +19565,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
@@ -19649,7 +19650,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -19689,7 +19690,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -19737,7 +19738,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -19756,7 +19757,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -19865,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -19898,7 +19899,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -19913,7 +19914,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -19946,13 +19947,13 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U13" s="40"/>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -19992,7 +19993,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -20042,7 +20043,7 @@
         <v>76</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -20089,10 +20090,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -20139,10 +20140,10 @@
         <v>29</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -20192,13 +20193,13 @@
         <v>68</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>18</v>
@@ -20239,10 +20240,10 @@
         <v>29</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1">
@@ -20291,7 +20292,7 @@
         <v>65</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -20337,10 +20338,10 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U21" s="40"/>
     </row>
@@ -20390,7 +20391,7 @@
         <v>79</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U22" s="40"/>
     </row>
@@ -20440,7 +20441,7 @@
         <v>70</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U23" s="40"/>
     </row>
@@ -20490,13 +20491,13 @@
         <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>18</v>
@@ -20537,16 +20538,16 @@
         <v>29</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U25" s="40"/>
     </row>
     <row r="26" spans="1:21" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>36</v>
@@ -20586,7 +20587,7 @@
         <v>29</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="U26" s="32"/>
     </row>
@@ -20631,7 +20632,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -20650,7 +20651,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -20750,7 +20751,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -20790,7 +20791,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -20805,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
@@ -20890,7 +20891,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -20930,7 +20931,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -20975,7 +20976,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -20994,7 +20995,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -21134,13 +21135,13 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P11" s="28"/>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1">
       <c r="A12" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>18</v>
@@ -21180,10 +21181,10 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1">
@@ -21231,12 +21232,12 @@
         <v>63</v>
       </c>
       <c r="P13" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1">
       <c r="A14" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>18</v>
@@ -21276,18 +21277,18 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="2" customFormat="1">
       <c r="A15" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="44">
         <v>1.9199999999999998E-2</v>
@@ -21324,10 +21325,10 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P15" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="2" customFormat="1">
@@ -21375,12 +21376,12 @@
         <v>57</v>
       </c>
       <c r="P16" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="2" customFormat="1">
       <c r="A17" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>17</v>
@@ -21420,18 +21421,18 @@
         <v>29</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1">
       <c r="A18" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="44">
         <v>5.3958000000000001E-5</v>
@@ -21468,15 +21469,15 @@
         <v>29</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P18" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="2" customFormat="1">
       <c r="A19" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>18</v>
@@ -21516,15 +21517,15 @@
         <v>29</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P19" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="2" customFormat="1">
       <c r="A20" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>18</v>
@@ -21564,15 +21565,15 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="2" customFormat="1">
       <c r="A21" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>18</v>
@@ -21612,15 +21613,15 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P21" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="2" customFormat="1">
       <c r="A22" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" s="40" t="s">
         <v>18</v>
@@ -21660,15 +21661,15 @@
         <v>29</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P22" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="2" customFormat="1">
       <c r="A23" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>18</v>
@@ -21708,15 +21709,15 @@
         <v>29</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P23" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="2" customFormat="1">
       <c r="A24" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>18</v>
@@ -21756,15 +21757,15 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P24" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="2" customFormat="1">
       <c r="A25" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>18</v>
@@ -21804,15 +21805,15 @@
         <v>29</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P25" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="2" customFormat="1">
       <c r="A26" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>18</v>
@@ -21852,15 +21853,15 @@
         <v>29</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="2" customFormat="1">
       <c r="A27" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>18</v>
@@ -21900,15 +21901,15 @@
         <v>29</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P27" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="2" customFormat="1">
       <c r="A28" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>18</v>
@@ -21948,15 +21949,15 @@
         <v>29</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P28" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="2" customFormat="1">
       <c r="A29" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="40" t="s">
         <v>18</v>
@@ -21996,18 +21997,18 @@
         <v>29</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P29" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="2" customFormat="1">
       <c r="A30" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C30" s="44">
         <v>2.2000000000000001E-3</v>
@@ -22044,15 +22045,15 @@
         <v>29</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P30" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="2" customFormat="1">
       <c r="A31" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" s="40" t="s">
         <v>18</v>
@@ -22092,15 +22093,15 @@
         <v>29</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P31" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="2" customFormat="1">
       <c r="A32" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>18</v>
@@ -22140,15 +22141,15 @@
         <v>29</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="2" customFormat="1">
       <c r="A33" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B33" s="40" t="s">
         <v>18</v>
@@ -22188,15 +22189,15 @@
         <v>29</v>
       </c>
       <c r="O33" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P33" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="2" customFormat="1">
       <c r="A34" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>18</v>
@@ -22236,15 +22237,15 @@
         <v>29</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P34" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="2" customFormat="1">
       <c r="A35" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>18</v>
@@ -22284,10 +22285,10 @@
         <v>29</v>
       </c>
       <c r="O35" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="P35" s="26" t="s">
         <v>226</v>
-      </c>
-      <c r="P35" s="26" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="2" customFormat="1">
@@ -22335,12 +22336,12 @@
         <v>72</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="2" customFormat="1">
       <c r="A37" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="40" t="s">
         <v>73</v>
@@ -22353,7 +22354,7 @@
         <v>81</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>80</v>
@@ -22380,15 +22381,15 @@
         <v>29</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P37" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>18</v>
@@ -22428,7 +22429,7 @@
         <v>29</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -22484,7 +22485,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -22503,7 +22504,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -22612,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -22645,7 +22646,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -22660,7 +22661,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -22693,13 +22694,13 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U13" s="40"/>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -22739,7 +22740,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -22789,7 +22790,7 @@
         <v>76</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -22836,10 +22837,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -22886,10 +22887,10 @@
         <v>29</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -22939,13 +22940,13 @@
         <v>68</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>18</v>
@@ -22986,10 +22987,10 @@
         <v>29</v>
       </c>
       <c r="O19" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="P19" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="P19" s="31" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1">
@@ -23038,7 +23039,7 @@
         <v>65</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -23084,10 +23085,10 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U21" s="40"/>
     </row>
@@ -23137,7 +23138,7 @@
         <v>79</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U22" s="40"/>
     </row>
@@ -23187,7 +23188,7 @@
         <v>70</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U23" s="40"/>
     </row>
@@ -23237,13 +23238,13 @@
         <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>18</v>
@@ -23284,16 +23285,16 @@
         <v>29</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U25" s="40"/>
     </row>
     <row r="26" spans="1:21" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>36</v>
@@ -23333,7 +23334,7 @@
         <v>29</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U26" s="32"/>
     </row>
@@ -23379,7 +23380,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -23398,7 +23399,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -23498,7 +23499,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -23538,7 +23539,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -23553,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
@@ -23638,7 +23639,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -23678,7 +23679,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -23726,7 +23727,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -23745,7 +23746,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -23854,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>90</v>
@@ -23887,13 +23888,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:21" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>36</v>
@@ -23933,7 +23934,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U13" s="32"/>
     </row>
@@ -23979,18 +23980,18 @@
         <v>29</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:21" customFormat="1">
       <c r="A15" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="49">
         <v>30</v>
@@ -24027,18 +24028,18 @@
         <v>29</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:21" customFormat="1">
       <c r="A16" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="49">
         <v>10</v>
@@ -24075,10 +24076,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1">
@@ -24123,7 +24124,7 @@
         <v>29</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -24267,7 +24268,7 @@
     </row>
     <row r="21" spans="1:21" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>18</v>
@@ -24307,13 +24308,13 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U21" s="40"/>
     </row>
     <row r="22" spans="1:21" s="7" customFormat="1">
       <c r="A22" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>36</v>
@@ -24353,7 +24354,7 @@
         <v>29</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U22" s="32"/>
     </row>
@@ -24398,7 +24399,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -24417,7 +24418,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -24517,7 +24518,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -24557,7 +24558,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -24572,7 +24573,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -24657,7 +24658,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -24697,7 +24698,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -24714,7 +24715,7 @@
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -24749,7 +24750,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -24768,7 +24769,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -24868,7 +24869,7 @@
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>36</v>
@@ -24908,10 +24909,10 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -24926,7 +24927,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -24959,7 +24960,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -25008,7 +25009,7 @@
         <v>76</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -25054,10 +25055,10 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -25103,10 +25104,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -25155,7 +25156,7 @@
         <v>68</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -25251,7 +25252,7 @@
         <v>63</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U19" s="40"/>
     </row>
@@ -25297,7 +25298,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -25395,7 +25396,7 @@
     </row>
     <row r="23" spans="1:21" s="2" customFormat="1">
       <c r="A23" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>18</v>
@@ -25435,16 +25436,16 @@
         <v>29</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P23" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U23" s="40"/>
     </row>
     <row r="24" spans="1:21" s="7" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>18</v>
@@ -25454,7 +25455,7 @@
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>29</v>
@@ -25484,16 +25485,16 @@
         <v>29</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P24" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>18</v>
@@ -25533,10 +25534,10 @@
         <v>29</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P25" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U25" s="40"/>
     </row>
@@ -25588,7 +25589,7 @@
     </row>
     <row r="27" spans="1:21" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>18</v>
@@ -25628,13 +25629,13 @@
         <v>29</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U27" s="40"/>
     </row>
     <row r="28" spans="1:21" s="7" customFormat="1">
       <c r="A28" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>36</v>
@@ -25674,7 +25675,7 @@
         <v>29</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U28" s="32"/>
     </row>
@@ -25720,7 +25721,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -25739,7 +25740,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -25839,7 +25840,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -25879,7 +25880,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -25894,7 +25895,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -25979,7 +25980,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -26019,7 +26020,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -26079,7 +26080,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -26178,7 +26179,7 @@
     </row>
     <row r="11" spans="1:16" s="7" customFormat="1">
       <c r="A11" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>18</v>
@@ -26218,7 +26219,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P11" s="28"/>
     </row>
@@ -26264,7 +26265,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P12" s="28"/>
     </row>
@@ -26326,7 +26327,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3"/>
@@ -26434,7 +26435,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>90</v>
@@ -26467,10 +26468,10 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -26484,7 +26485,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>41</v>
@@ -26517,7 +26518,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>49</v>
@@ -26534,7 +26535,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>41</v>
@@ -26584,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>41</v>
@@ -26631,7 +26632,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>41</v>
@@ -26709,7 +26710,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="4:6">
@@ -26758,7 +26759,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -26775,7 +26776,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -26905,7 +26906,7 @@
         <v>29</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>87</v>
@@ -26913,7 +26914,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>36</v>
@@ -26952,7 +26953,7 @@
         <v>29</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O12" s="10"/>
     </row>
@@ -27057,7 +27058,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3"/>
@@ -27165,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>90</v>
@@ -27198,7 +27199,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P11" s="24" t="s">
         <v>51</v>
@@ -27215,7 +27216,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>90</v>
@@ -27248,7 +27249,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P12" s="24"/>
     </row>
@@ -27263,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>41</v>
@@ -27296,7 +27297,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>49</v>
@@ -27313,7 +27314,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>41</v>
@@ -27363,7 +27364,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>41</v>
@@ -27410,7 +27411,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>41</v>
@@ -27488,7 +27489,7 @@
         <v>29</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -27538,7 +27539,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5"/>
@@ -27556,7 +27557,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
@@ -27693,7 +27694,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>87</v>
@@ -27701,7 +27702,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>36</v>
@@ -27741,7 +27742,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P12" s="10"/>
     </row>
